--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2021/Табель 12 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2021/Табель 12 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="15120" windowHeight="7776" tabRatio="874" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="26" r:id="rId1"/>
@@ -996,35 +996,80 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1032,57 +1077,57 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,50 +1137,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1145,15 +1154,6 @@
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1509,13 +1509,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111">
-        <v>2</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="110">
+        <v>2</v>
+      </c>
+      <c r="B1" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="25">
@@ -1566,20 +1566,20 @@
       <c r="S1" s="25">
         <v>16</v>
       </c>
-      <c r="T1" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="108" t="s">
+      <c r="T1" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="101"/>
-      <c r="X1" s="108">
+      <c r="X1" s="107">
         <v>12</v>
       </c>
-      <c r="Y1" s="107">
+      <c r="Y1" s="116">
         <v>6565</v>
       </c>
       <c r="Z1" s="2">
@@ -1588,9 +1588,9 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="112"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -1609,12 +1609,12 @@
       <c r="S2" s="26">
         <v>8</v>
       </c>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="110"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="108"/>
       <c r="W2" s="102"/>
       <c r="X2" s="109"/>
-      <c r="Y2" s="107"/>
+      <c r="Y2" s="116"/>
       <c r="Z2" s="2" t="s">
         <v>52</v>
       </c>
@@ -1624,9 +1624,9 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
       <c r="D3" s="27">
         <v>17</v>
       </c>
@@ -1675,24 +1675,24 @@
       <c r="S3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="110"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="108"/>
       <c r="W3" s="102"/>
-      <c r="X3" s="108">
+      <c r="X3" s="107">
         <f>Z1+Z3</f>
         <v>86</v>
       </c>
-      <c r="Y3" s="107"/>
+      <c r="Y3" s="116"/>
       <c r="Z3" s="2">
         <f>SUM(D4:S4)</f>
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="26">
         <v>8</v>
       </c>
@@ -1741,21 +1741,21 @@
       <c r="S4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
       <c r="V4" s="109"/>
       <c r="W4" s="103"/>
       <c r="X4" s="109"/>
-      <c r="Y4" s="107"/>
+      <c r="Y4" s="116"/>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="111">
-        <v>2</v>
-      </c>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="110">
+        <v>2</v>
+      </c>
+      <c r="B8" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="25">
@@ -1806,20 +1806,20 @@
       <c r="S8" s="25">
         <v>16</v>
       </c>
-      <c r="T8" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U8" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="108" t="s">
+      <c r="T8" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="101"/>
-      <c r="X8" s="108">
+      <c r="X8" s="107">
         <v>12</v>
       </c>
-      <c r="Y8" s="107">
+      <c r="Y8" s="116">
         <v>6565</v>
       </c>
       <c r="Z8" s="2">
@@ -1828,9 +1828,9 @@
       </c>
     </row>
     <row r="9" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="26">
         <v>8</v>
       </c>
@@ -1879,12 +1879,12 @@
       <c r="S9" s="26">
         <v>8</v>
       </c>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="110"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="102"/>
       <c r="X9" s="109"/>
-      <c r="Y9" s="107"/>
+      <c r="Y9" s="116"/>
       <c r="Z9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1894,9 +1894,9 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="27">
         <v>17</v>
       </c>
@@ -1945,24 +1945,24 @@
       <c r="S10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="110"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="102"/>
-      <c r="X10" s="108">
+      <c r="X10" s="107">
         <f>Z8+Z10</f>
         <v>96</v>
       </c>
-      <c r="Y10" s="107"/>
+      <c r="Y10" s="116"/>
       <c r="Z10" s="2">
         <f>SUM(D11:S11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -1981,15 +1981,20 @@
       <c r="S11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="115"/>
       <c r="V11" s="109"/>
       <c r="W11" s="103"/>
       <c r="X11" s="109"/>
-      <c r="Y11" s="107"/>
+      <c r="Y11" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y8:Y11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="V8:V11"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="A1:A4"/>
@@ -2003,11 +2008,6 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="T8:T11"/>
     <mergeCell ref="U8:U11"/>
-    <mergeCell ref="Y8:Y11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y4"/>
-    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2170,63 +2170,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
+      <c r="A6" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="str">
+      <c r="A7" s="121" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
@@ -2256,94 +2256,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="133" t="s">
+      <c r="Y9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="119" t="s">
+      <c r="Z9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="117"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2394,17 +2394,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="167"/>
-      <c r="Y11" s="108">
+      <c r="Y11" s="107">
         <v>20</v>
       </c>
       <c r="Z11" s="171">
@@ -2412,10 +2412,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2464,18 +2464,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="168"/>
       <c r="Y12" s="109"/>
       <c r="Z12" s="171"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2524,20 +2524,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
       <c r="X13" s="168"/>
-      <c r="Y13" s="108">
+      <c r="Y13" s="107">
         <v>160</v>
       </c>
       <c r="Z13" s="171"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2586,24 +2586,704 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="169"/>
       <c r="Y14" s="109"/>
       <c r="Z14" s="171"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44562</v>
       </c>
       <c r="L15" s="59" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D18" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D19" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D20" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D21" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D22" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="3.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="R1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="67">
+        <v>2742203101</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+    </row>
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+    </row>
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="121" t="str">
+        <f>Мельницький!A8</f>
+        <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+    </row>
+    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="117"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110">
+        <v>1</v>
+      </c>
+      <c r="B11" s="110">
+        <v>1</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>3</v>
+      </c>
+      <c r="H11" s="25">
+        <v>4</v>
+      </c>
+      <c r="I11" s="25">
+        <v>5</v>
+      </c>
+      <c r="J11" s="25">
+        <v>6</v>
+      </c>
+      <c r="K11" s="25">
+        <v>7</v>
+      </c>
+      <c r="L11" s="25">
+        <v>8</v>
+      </c>
+      <c r="M11" s="25">
+        <v>9</v>
+      </c>
+      <c r="N11" s="25">
+        <v>10</v>
+      </c>
+      <c r="O11" s="25">
+        <v>11</v>
+      </c>
+      <c r="P11" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>13</v>
+      </c>
+      <c r="R11" s="25">
+        <v>14</v>
+      </c>
+      <c r="S11" s="25">
+        <v>15</v>
+      </c>
+      <c r="T11" s="25">
+        <v>16</v>
+      </c>
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="171">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="171"/>
+    </row>
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="27">
+        <v>17</v>
+      </c>
+      <c r="F13" s="27">
+        <v>18</v>
+      </c>
+      <c r="G13" s="27">
+        <v>19</v>
+      </c>
+      <c r="H13" s="27">
+        <v>20</v>
+      </c>
+      <c r="I13" s="27">
+        <v>21</v>
+      </c>
+      <c r="J13" s="27">
+        <v>22</v>
+      </c>
+      <c r="K13" s="27">
+        <v>23</v>
+      </c>
+      <c r="L13" s="27">
+        <v>24</v>
+      </c>
+      <c r="M13" s="27">
+        <v>25</v>
+      </c>
+      <c r="N13" s="27">
+        <v>26</v>
+      </c>
+      <c r="O13" s="27">
+        <v>27</v>
+      </c>
+      <c r="P13" s="27">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>29</v>
+      </c>
+      <c r="R13" s="28">
+        <v>30</v>
+      </c>
+      <c r="S13" s="28">
+        <v>31</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="171"/>
+    </row>
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="169"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="171"/>
+    </row>
+    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="132"/>
+      <c r="D15" s="66">
+        <f>Мельницький!C36</f>
+        <v>44562</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2693,686 +3373,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z23"/>
-  <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="3.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.33203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="R1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="67">
-        <v>2742203101</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-    </row>
-    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
-    </row>
-    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="str">
-        <f>Мельницький!A8</f>
-        <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-    </row>
-    <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-    </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="133" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y9" s="133" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z9" s="119" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="119"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
-        <v>1</v>
-      </c>
-      <c r="B11" s="111">
-        <v>1</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>2</v>
-      </c>
-      <c r="G11" s="25">
-        <v>3</v>
-      </c>
-      <c r="H11" s="25">
-        <v>4</v>
-      </c>
-      <c r="I11" s="25">
-        <v>5</v>
-      </c>
-      <c r="J11" s="25">
-        <v>6</v>
-      </c>
-      <c r="K11" s="25">
-        <v>7</v>
-      </c>
-      <c r="L11" s="25">
-        <v>8</v>
-      </c>
-      <c r="M11" s="25">
-        <v>9</v>
-      </c>
-      <c r="N11" s="25">
-        <v>10</v>
-      </c>
-      <c r="O11" s="25">
-        <v>11</v>
-      </c>
-      <c r="P11" s="25">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>13</v>
-      </c>
-      <c r="R11" s="25">
-        <v>14</v>
-      </c>
-      <c r="S11" s="25">
-        <v>15</v>
-      </c>
-      <c r="T11" s="25">
-        <v>16</v>
-      </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="171">
-        <v>4770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="171"/>
-    </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="27">
-        <v>17</v>
-      </c>
-      <c r="F13" s="27">
-        <v>18</v>
-      </c>
-      <c r="G13" s="27">
-        <v>19</v>
-      </c>
-      <c r="H13" s="27">
-        <v>20</v>
-      </c>
-      <c r="I13" s="27">
-        <v>21</v>
-      </c>
-      <c r="J13" s="27">
-        <v>22</v>
-      </c>
-      <c r="K13" s="27">
-        <v>23</v>
-      </c>
-      <c r="L13" s="27">
-        <v>24</v>
-      </c>
-      <c r="M13" s="27">
-        <v>25</v>
-      </c>
-      <c r="N13" s="27">
-        <v>26</v>
-      </c>
-      <c r="O13" s="27">
-        <v>27</v>
-      </c>
-      <c r="P13" s="27">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>29</v>
-      </c>
-      <c r="R13" s="28">
-        <v>30</v>
-      </c>
-      <c r="S13" s="28">
-        <v>31</v>
-      </c>
-      <c r="T13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="171"/>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="171"/>
-    </row>
-    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="66">
-        <f>Мельницький!C36</f>
-        <v>44562</v>
-      </c>
-      <c r="L15" s="64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D17" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D18" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D19" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D20" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D21" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D22" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA25"/>
@@ -3553,147 +3553,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="str">
+      <c r="A8" s="121" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="119" t="s">
+      <c r="Y9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="117"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3744,29 +3744,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="108">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="107">
         <v>21</v>
       </c>
-      <c r="Y11" s="108"/>
+      <c r="Y11" s="107"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3815,17 +3815,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3874,23 +3874,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110">
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108">
         <v>42</v>
       </c>
-      <c r="Y13" s="110"/>
+      <c r="Y13" s="108"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3939,8 +3939,8 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="109"/>
       <c r="Y14" s="109"/>
@@ -4069,6 +4069,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -4078,20 +4092,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4279,147 +4279,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="str">
+      <c r="A8" s="121" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="119" t="s">
+      <c r="Y9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="117"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -4470,16 +4470,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="108">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="107">
         <v>21</v>
       </c>
       <c r="Y11" s="160"/>
@@ -4489,10 +4489,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4541,17 +4541,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="109"/>
       <c r="Y12" s="161"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4600,20 +4600,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="108">
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="107">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
       <c r="Y13" s="161"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4662,8 +4662,8 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="109"/>
       <c r="Y14" s="162"/>
@@ -4792,6 +4792,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4802,19 +4815,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4843,12 +4843,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4992,149 +4992,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="str">
+      <c r="A8" s="122" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="133" t="s">
+      <c r="Y9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="119" t="s">
+      <c r="Z9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="117"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>2</v>
       </c>
       <c r="C11" s="134" t="s">
@@ -5191,26 +5191,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="108">
+      <c r="Y11" s="107">
         <v>21</v>
       </c>
-      <c r="Z11" s="107">
+      <c r="Z11" s="116">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="134"/>
       <c r="D12" s="135"/>
       <c r="E12" s="26" t="s">
@@ -5261,16 +5261,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="109"/>
-      <c r="Z12" s="107"/>
+      <c r="Z12" s="116"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="134"/>
       <c r="D13" s="135"/>
       <c r="E13" s="27">
@@ -5321,18 +5321,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="108">
+      <c r="Y13" s="107">
         <v>42</v>
       </c>
-      <c r="Z13" s="107"/>
+      <c r="Z13" s="116"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="134"/>
       <c r="D14" s="135"/>
       <c r="E14" s="26">
@@ -5383,18 +5383,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="109"/>
-      <c r="Z14" s="107"/>
+      <c r="Z14" s="116"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="117"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5476,15 +5476,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5501,6 +5492,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5530,49 +5530,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
@@ -5682,147 +5682,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="str">
+      <c r="A8" s="122" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="125" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="133" t="s">
+      <c r="Y9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="119" t="s">
+      <c r="Z9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="117"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -5873,28 +5873,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="108">
+      <c r="Y11" s="107">
         <v>22</v>
       </c>
-      <c r="Z11" s="107">
+      <c r="Z11" s="116">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -5943,22 +5943,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="90"/>
       <c r="Y12" s="109"/>
-      <c r="Z12" s="107"/>
+      <c r="Z12" s="116"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -6007,25 +6007,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="108">
+      <c r="Y13" s="107">
         <f>AB13</f>
         <v>87</v>
       </c>
-      <c r="Z13" s="107"/>
+      <c r="Z13" s="116"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -6074,12 +6074,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="91"/>
       <c r="Y14" s="109"/>
-      <c r="Z14" s="107"/>
+      <c r="Z14" s="116"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>39</v>
@@ -6164,18 +6164,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118">
+      <c r="C18" s="132"/>
+      <c r="D18" s="133">
         <f>Мельницький!C36</f>
         <v>44562</v>
       </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
       <c r="L18" s="92" t="s">
         <v>99</v>
       </c>
@@ -6217,6 +6217,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -6233,18 +6245,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -6277,11 +6277,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -6395,141 +6395,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="133" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="133" t="s">
+      <c r="U9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="119" t="s">
+      <c r="Y9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="117"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="112" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -6580,20 +6580,20 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
+      <c r="T11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="108">
+      <c r="X11" s="107">
         <v>21</v>
       </c>
-      <c r="Y11" s="107">
+      <c r="Y11" s="116">
         <v>6565</v>
       </c>
       <c r="Z11" s="2">
@@ -6602,9 +6602,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -6653,12 +6653,12 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="110"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="108"/>
       <c r="W12" s="23"/>
       <c r="X12" s="109"/>
-      <c r="Y12" s="107"/>
+      <c r="Y12" s="116"/>
       <c r="Z12" s="2" t="s">
         <v>52</v>
       </c>
@@ -6668,9 +6668,9 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -6719,24 +6719,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="110"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="108">
+      <c r="X13" s="107">
         <f>Z11+Z13</f>
         <v>166</v>
       </c>
-      <c r="Y13" s="107"/>
+      <c r="Y13" s="116"/>
       <c r="Z13" s="2">
         <f>SUM(D14:S14)</f>
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -6785,21 +6785,21 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
       <c r="V14" s="109"/>
       <c r="W14" s="24"/>
       <c r="X14" s="109"/>
-      <c r="Y14" s="107"/>
+      <c r="Y14" s="116"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111">
-        <v>2</v>
-      </c>
-      <c r="B15" s="112" t="s">
+      <c r="A15" s="110">
+        <v>2</v>
+      </c>
+      <c r="B15" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -6850,20 +6850,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="108" t="s">
+      <c r="T15" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="108">
+      <c r="X15" s="107">
         <v>22</v>
       </c>
-      <c r="Y15" s="107">
+      <c r="Y15" s="116">
         <v>6565</v>
       </c>
       <c r="Z15" s="2">
@@ -6872,9 +6872,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -6923,12 +6923,12 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="110"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="44"/>
       <c r="X16" s="109"/>
-      <c r="Y16" s="107"/>
+      <c r="Y16" s="116"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -6938,9 +6938,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -6989,24 +6989,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="110"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="108"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="108">
+      <c r="X17" s="107">
         <f>Z15+Z17</f>
         <v>174</v>
       </c>
-      <c r="Y17" s="107"/>
+      <c r="Y17" s="116"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -7055,21 +7055,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
       <c r="V18" s="109"/>
       <c r="W18" s="43"/>
       <c r="X18" s="109"/>
-      <c r="Y18" s="107"/>
+      <c r="Y18" s="116"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111">
+      <c r="A19" s="110">
         <v>3</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -7120,20 +7120,20 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="108" t="s">
+      <c r="T19" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="108">
+      <c r="X19" s="107">
         <v>22</v>
       </c>
-      <c r="Y19" s="107">
+      <c r="Y19" s="116">
         <v>6825</v>
       </c>
       <c r="Z19" s="2">
@@ -7142,9 +7142,9 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -7193,12 +7193,12 @@
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="110"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="108"/>
       <c r="W20" s="55"/>
       <c r="X20" s="109"/>
-      <c r="Y20" s="107"/>
+      <c r="Y20" s="116"/>
       <c r="Z20" s="2" t="s">
         <v>52</v>
       </c>
@@ -7208,9 +7208,9 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -7259,24 +7259,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="110"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="108"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="108">
+      <c r="X21" s="107">
         <f>Z19+Z21</f>
         <v>174</v>
       </c>
-      <c r="Y21" s="107"/>
+      <c r="Y21" s="116"/>
       <c r="Z21" s="2">
         <f>SUM(D22:S22)</f>
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -7325,21 +7325,21 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
       <c r="V22" s="109"/>
       <c r="W22" s="54"/>
       <c r="X22" s="109"/>
-      <c r="Y22" s="107"/>
+      <c r="Y22" s="116"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111">
+      <c r="A23" s="110">
         <v>4</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -7390,20 +7390,20 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="108" t="s">
+      <c r="T23" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="108">
+      <c r="X23" s="107">
         <v>22</v>
       </c>
-      <c r="Y23" s="107">
+      <c r="Y23" s="116">
         <v>6565</v>
       </c>
       <c r="Z23" s="2">
@@ -7412,9 +7412,9 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -7463,12 +7463,12 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="110"/>
+      <c r="T24" s="114"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="108"/>
       <c r="W24" s="55"/>
       <c r="X24" s="109"/>
-      <c r="Y24" s="107"/>
+      <c r="Y24" s="116"/>
       <c r="Z24" s="2" t="s">
         <v>52</v>
       </c>
@@ -7478,9 +7478,9 @@
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -7529,24 +7529,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="110"/>
+      <c r="T25" s="114"/>
+      <c r="U25" s="114"/>
+      <c r="V25" s="108"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="108">
+      <c r="X25" s="107">
         <f>Z23+Z25</f>
         <v>174</v>
       </c>
-      <c r="Y25" s="107"/>
+      <c r="Y25" s="116"/>
       <c r="Z25" s="2">
         <f>SUM(D26:S26)</f>
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -7595,15 +7595,15 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
       <c r="V26" s="109"/>
       <c r="W26" s="54"/>
       <c r="X26" s="109"/>
-      <c r="Y26" s="107"/>
+      <c r="Y26" s="116"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111">
+      <c r="A27" s="110">
         <v>5</v>
       </c>
       <c r="B27" s="134" t="s">
@@ -7660,20 +7660,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="108" t="s">
+      <c r="T27" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="108">
+      <c r="X27" s="107">
         <v>22</v>
       </c>
-      <c r="Y27" s="107">
+      <c r="Y27" s="116">
         <v>6565</v>
       </c>
       <c r="Z27" s="2">
@@ -7682,7 +7682,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="134"/>
       <c r="C28" s="135"/>
       <c r="D28" s="26">
@@ -7733,12 +7733,12 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="110"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
+      <c r="V28" s="108"/>
       <c r="W28" s="55"/>
       <c r="X28" s="109"/>
-      <c r="Y28" s="107"/>
+      <c r="Y28" s="116"/>
       <c r="Z28" s="2" t="s">
         <v>52</v>
       </c>
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="134"/>
       <c r="C29" s="135"/>
       <c r="D29" s="27">
@@ -7799,22 +7799,22 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="110"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
+      <c r="V29" s="108"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="108">
+      <c r="X29" s="107">
         <f>Z27+Z29</f>
         <v>174</v>
       </c>
-      <c r="Y29" s="107"/>
+      <c r="Y29" s="116"/>
       <c r="Z29" s="2">
         <f>SUM(D30:S30)</f>
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="134"/>
       <c r="C30" s="135"/>
       <c r="D30" s="26">
@@ -7865,21 +7865,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
       <c r="V30" s="109"/>
       <c r="W30" s="54"/>
       <c r="X30" s="109"/>
-      <c r="Y30" s="107"/>
+      <c r="Y30" s="116"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111">
+      <c r="A31" s="110">
         <v>6</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -7930,20 +7930,20 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="108" t="s">
+      <c r="T31" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="108">
+      <c r="X31" s="107">
         <v>22</v>
       </c>
-      <c r="Y31" s="107">
+      <c r="Y31" s="116">
         <v>6565</v>
       </c>
       <c r="Z31" s="2">
@@ -7952,9 +7952,9 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -8003,12 +8003,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="110"/>
+      <c r="T32" s="114"/>
+      <c r="U32" s="114"/>
+      <c r="V32" s="108"/>
       <c r="W32" s="47"/>
       <c r="X32" s="109"/>
-      <c r="Y32" s="107"/>
+      <c r="Y32" s="116"/>
       <c r="Z32" s="2" t="s">
         <v>52</v>
       </c>
@@ -8018,9 +8018,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -8069,24 +8069,24 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="110"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="108"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="108">
+      <c r="X33" s="107">
         <f>Z31+Z33</f>
         <v>174</v>
       </c>
-      <c r="Y33" s="107"/>
+      <c r="Y33" s="116"/>
       <c r="Z33" s="2">
         <f>SUM(D34:S34)</f>
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -8135,12 +8135,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
       <c r="V34" s="109"/>
       <c r="W34" s="46"/>
       <c r="X34" s="109"/>
-      <c r="Y34" s="107"/>
+      <c r="Y34" s="116"/>
     </row>
     <row r="35" spans="1:26" s="32" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="31"/>
@@ -8155,10 +8155,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="117"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="33">
         <v>44562</v>
       </c>
@@ -8224,33 +8224,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -8267,31 +8265,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8326,11 +8326,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8420,142 +8420,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="123"/>
-      <c r="V5" s="123"/>
-      <c r="W5" s="123"/>
+      <c r="A5" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="str">
+      <c r="A6" s="121" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="133" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="133" t="s">
+      <c r="U7" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="133" t="s">
+      <c r="V7" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="133" t="s">
+      <c r="W7" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="133" t="s">
+      <c r="X7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="119" t="s">
+      <c r="Y7" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="133"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="119"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="117"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="145" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -8606,29 +8606,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="108">
+      <c r="T9" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="107">
         <v>22</v>
       </c>
-      <c r="Y9" s="107">
+      <c r="Y9" s="116">
         <v>6825</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="144"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="146"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -8677,21 +8677,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
       <c r="X10" s="109"/>
-      <c r="Y10" s="107"/>
+      <c r="Y10" s="116"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="144"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -8740,20 +8740,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="108">
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="107">
         <f>Z10+Z12</f>
         <v>174</v>
       </c>
-      <c r="Y11" s="107"/>
+      <c r="Y11" s="116"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="145"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -8802,25 +8802,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
+      <c r="T12" s="115"/>
+      <c r="U12" s="115"/>
       <c r="V12" s="109"/>
       <c r="W12" s="109"/>
       <c r="X12" s="109"/>
-      <c r="Y12" s="107"/>
+      <c r="Y12" s="116"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111">
-        <v>2</v>
-      </c>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="110">
+        <v>2</v>
+      </c>
+      <c r="B13" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="113" t="str">
+      <c r="C13" s="112" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -8872,22 +8872,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="108">
+      <c r="T13" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="107">
         <v>22</v>
       </c>
-      <c r="Y13" s="107">
+      <c r="Y13" s="116">
         <v>6825</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -8899,9 +8899,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -8950,12 +8950,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
       <c r="X14" s="109"/>
-      <c r="Y14" s="107"/>
+      <c r="Y14" s="116"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -8966,9 +8966,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -9017,20 +9017,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="108">
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="107">
         <f>Z14+Z16</f>
         <v>174</v>
       </c>
-      <c r="Y15" s="107"/>
+      <c r="Y15" s="116"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9079,12 +9079,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
+      <c r="T16" s="115"/>
+      <c r="U16" s="115"/>
       <c r="V16" s="109"/>
       <c r="W16" s="109"/>
       <c r="X16" s="109"/>
-      <c r="Y16" s="107"/>
+      <c r="Y16" s="116"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>78</v>
@@ -9095,13 +9095,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152">
+      <c r="A17" s="142">
         <v>3</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="144" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -9152,29 +9152,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="146">
+      <c r="T17" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="136">
         <v>22</v>
       </c>
-      <c r="Y17" s="107">
+      <c r="Y17" s="116">
         <v>6565</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="142"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -9223,21 +9223,21 @@
       <c r="S18" s="26">
         <v>4</v>
       </c>
-      <c r="T18" s="115"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="107"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="116"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="142"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -9286,20 +9286,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="115"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="108">
+      <c r="T19" s="114"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="107">
         <f>Z18+Z20</f>
         <v>87</v>
       </c>
-      <c r="Y19" s="107"/>
+      <c r="Y19" s="116"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="142"/>
+      <c r="A20" s="142"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9348,25 +9348,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="116"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
       <c r="X20" s="109"/>
-      <c r="Y20" s="107"/>
+      <c r="Y20" s="116"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="136">
+      <c r="A21" s="151">
         <v>4</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="144" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -9417,29 +9417,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="108">
+      <c r="T21" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="107">
         <v>22</v>
       </c>
-      <c r="Y21" s="107">
+      <c r="Y21" s="116">
         <v>6565</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="137"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="142"/>
+      <c r="A22" s="152"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -9488,21 +9488,21 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="107"/>
+      <c r="T22" s="114"/>
+      <c r="U22" s="114"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="116"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="137"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="142"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -9551,20 +9551,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="108">
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="107">
         <f>Z22+Z24</f>
         <v>174</v>
       </c>
-      <c r="Y23" s="107"/>
+      <c r="Y23" s="116"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="144"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -9613,25 +9613,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
       <c r="V24" s="109"/>
       <c r="W24" s="109"/>
       <c r="X24" s="109"/>
-      <c r="Y24" s="107"/>
+      <c r="Y24" s="116"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="136">
+      <c r="A25" s="151">
         <v>4</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="144" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -9682,29 +9682,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="108">
+      <c r="T25" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="107">
         <v>22</v>
       </c>
-      <c r="Y25" s="107">
+      <c r="Y25" s="116">
         <v>6565</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="137"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -9753,21 +9753,21 @@
       <c r="S26" s="26">
         <v>8</v>
       </c>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="107"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="116"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="137"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="142"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="144"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -9816,20 +9816,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
-      <c r="X27" s="108">
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="107">
         <f>Z26+Z28</f>
         <v>174</v>
       </c>
-      <c r="Y27" s="107"/>
+      <c r="Y27" s="116"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
+      <c r="A28" s="153"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -9878,12 +9878,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
       <c r="V28" s="109"/>
       <c r="W28" s="109"/>
       <c r="X28" s="109"/>
-      <c r="Y28" s="107"/>
+      <c r="Y28" s="116"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>78</v>
@@ -9923,10 +9923,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44562</v>
@@ -10087,6 +10087,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -10103,54 +10151,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -10163,7 +10163,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15:T18"/>
     </sheetView>
   </sheetViews>
@@ -10319,63 +10319,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="123"/>
+      <c r="A6" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="str">
+      <c r="A7" s="121" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
@@ -10405,90 +10405,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="125" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="133" t="s">
+      <c r="Y9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="119" t="s">
+      <c r="Z9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="117"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136">
+      <c r="A11" s="151">
         <v>1</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -10539,22 +10539,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="108">
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="107">
         <v>3</v>
       </c>
-      <c r="Z11" s="154">
+      <c r="Z11" s="157">
         <v>6565</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="137"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -10603,18 +10603,18 @@
       <c r="T12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="158"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
       <c r="Y12" s="109"/>
-      <c r="Z12" s="155"/>
+      <c r="Z12" s="158"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10663,20 +10663,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="108">
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="107">
         <v>24</v>
       </c>
-      <c r="Z13" s="155"/>
+      <c r="Z13" s="158"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="138"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26" t="s">
         <v>8</v>
       </c>
@@ -10725,22 +10725,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
       <c r="Y14" s="109"/>
-      <c r="Z14" s="156"/>
+      <c r="Z14" s="159"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="136">
-        <v>2</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114" t="s">
+      <c r="A15" s="151">
+        <v>2</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="112" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -10791,22 +10791,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="108">
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="107">
         <v>22</v>
       </c>
-      <c r="Z15" s="154">
+      <c r="Z15" s="157">
         <v>6566</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="137"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="113"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -10855,18 +10855,18 @@
       <c r="T16" s="26">
         <v>4</v>
       </c>
-      <c r="U16" s="158"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
       <c r="Y16" s="109"/>
-      <c r="Z16" s="155"/>
+      <c r="Z16" s="158"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="113"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -10915,20 +10915,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="108">
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="107">
         <v>87</v>
       </c>
-      <c r="Z17" s="155"/>
+      <c r="Z17" s="158"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="113"/>
+      <c r="A18" s="153"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -10977,22 +10977,22 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
       <c r="Y18" s="109"/>
-      <c r="Z18" s="156"/>
+      <c r="Z18" s="159"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="136">
-        <v>2</v>
-      </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114" t="s">
+      <c r="A19" s="151">
+        <v>2</v>
+      </c>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="112" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="25">
@@ -11043,22 +11043,22 @@
       <c r="T19" s="25">
         <v>16</v>
       </c>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="108">
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="107">
         <v>19</v>
       </c>
-      <c r="Z19" s="154">
+      <c r="Z19" s="157">
         <v>6567</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="137"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="113"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="26" t="s">
         <v>8</v>
       </c>
@@ -11107,18 +11107,18 @@
       <c r="T20" s="26">
         <v>4</v>
       </c>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
       <c r="Y20" s="109"/>
-      <c r="Z20" s="155"/>
+      <c r="Z20" s="158"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="137"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="113"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="27">
         <v>17</v>
       </c>
@@ -11167,20 +11167,20 @@
       <c r="T21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="108">
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="107">
         <v>75</v>
       </c>
-      <c r="Z21" s="155"/>
+      <c r="Z21" s="158"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="138"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="113"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="26">
         <v>4</v>
       </c>
@@ -11229,12 +11229,12 @@
       <c r="T22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
       <c r="Y22" s="109"/>
-      <c r="Z22" s="156"/>
+      <c r="Z22" s="159"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -11265,10 +11265,10 @@
       <c r="Z23" s="88"/>
     </row>
     <row r="24" spans="1:26" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="117"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="106">
         <f>Мельницький!C36</f>
         <v>44562</v>
@@ -11332,30 +11332,13 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="W19:W22"/>
-    <mergeCell ref="X19:X22"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z22"/>
-    <mergeCell ref="Y21:Y22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -11372,13 +11355,30 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="X19:X22"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z22"/>
+    <mergeCell ref="Y21:Y22"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -11407,12 +11407,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -11557,147 +11557,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="str">
+      <c r="A8" s="121" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="123"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="119" t="s">
+      <c r="Y9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="117"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="136">
+      <c r="B11" s="151">
         <v>1</v>
       </c>
       <c r="C11" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="145" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -11748,16 +11748,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="108">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="107">
         <v>22</v>
       </c>
       <c r="Y11" s="160">
@@ -11769,10 +11769,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="137"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="165"/>
-      <c r="D12" s="144"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -11821,17 +11821,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="109"/>
       <c r="Y12" s="161"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="137"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="165"/>
-      <c r="D13" s="144"/>
+      <c r="D13" s="146"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -11880,20 +11880,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="108">
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="107">
         <f>Z11+Z14</f>
         <v>174</v>
       </c>
       <c r="Y13" s="161"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="166"/>
-      <c r="D14" s="145"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -11942,8 +11942,8 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="109"/>
       <c r="Y14" s="162"/>
@@ -12062,14 +12062,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -12080,12 +12078,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12098,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17:X18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12117,11 +12117,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12271,145 +12271,145 @@
       <c r="Z6" s="97"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="str">
+      <c r="A8" s="122" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="133" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="133" t="s">
+      <c r="U9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="119" t="s">
+      <c r="Y9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="117"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="112" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -12460,28 +12460,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
+      <c r="T11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="167"/>
-      <c r="X11" s="108">
+      <c r="X11" s="107">
         <v>22</v>
       </c>
-      <c r="Y11" s="107">
-        <v>6000</v>
+      <c r="Y11" s="116">
+        <v>6500</v>
       </c>
       <c r="Z11" s="99"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -12530,21 +12530,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="110"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="108"/>
       <c r="W12" s="168"/>
       <c r="X12" s="109"/>
-      <c r="Y12" s="107"/>
+      <c r="Y12" s="116"/>
       <c r="Z12" s="99">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -12593,20 +12593,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="110"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="168"/>
-      <c r="X13" s="108">
+      <c r="X13" s="107">
         <f>Z12+Z14</f>
         <v>43.5</v>
       </c>
-      <c r="Y13" s="107"/>
+      <c r="Y13" s="116"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -12655,25 +12655,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
+      <c r="T14" s="115"/>
+      <c r="U14" s="115"/>
       <c r="V14" s="109"/>
       <c r="W14" s="169"/>
       <c r="X14" s="109"/>
-      <c r="Y14" s="107"/>
+      <c r="Y14" s="116"/>
       <c r="Z14" s="98">
         <f>SUM(D14:S14)</f>
         <v>19.5</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111">
-        <v>2</v>
-      </c>
-      <c r="B15" s="112" t="s">
+      <c r="A15" s="110">
+        <v>2</v>
+      </c>
+      <c r="B15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="112" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -12724,28 +12724,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="108" t="s">
+      <c r="T15" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="107" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="167"/>
-      <c r="X15" s="108">
+      <c r="X15" s="107">
         <v>22</v>
       </c>
-      <c r="Y15" s="107">
-        <v>6000</v>
+      <c r="Y15" s="116">
+        <v>6500</v>
       </c>
       <c r="Z15" s="99"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -12794,21 +12794,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="110"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="108"/>
       <c r="W16" s="168"/>
       <c r="X16" s="109"/>
-      <c r="Y16" s="107"/>
+      <c r="Y16" s="116"/>
       <c r="Z16" s="99">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -12857,20 +12857,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="110"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="108"/>
       <c r="W17" s="168"/>
-      <c r="X17" s="108">
+      <c r="X17" s="107">
         <f>Z16+Z18</f>
         <v>174</v>
       </c>
-      <c r="Y17" s="107"/>
+      <c r="Y17" s="116"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -12919,12 +12919,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
       <c r="V18" s="109"/>
       <c r="W18" s="169"/>
       <c r="X18" s="109"/>
-      <c r="Y18" s="107"/>
+      <c r="Y18" s="116"/>
       <c r="Z18" s="98">
         <f>SUM(D18:S18)</f>
         <v>78</v>
@@ -13034,6 +13034,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -13047,26 +13067,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13077,15 +13077,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="3.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
     <col min="5" max="11" width="4.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="5" style="2" customWidth="1"/>
     <col min="13" max="13" width="4.33203125" style="2" customWidth="1"/>
@@ -13100,49 +13100,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -13252,147 +13252,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
+      <c r="A7" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="str">
+      <c r="A8" s="122" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ГРУДЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="125" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="133" t="s">
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="133" t="s">
+      <c r="V9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="133" t="s">
+      <c r="W9" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="133" t="s">
+      <c r="X9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="133" t="s">
+      <c r="Y9" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="119" t="s">
+      <c r="Z9" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="119"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="117"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -13443,21 +13443,21 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="108" t="s">
+      <c r="U11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="107" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="108">
+      <c r="Y11" s="107">
         <v>22</v>
       </c>
-      <c r="Z11" s="107">
-        <v>6060</v>
+      <c r="Z11" s="116">
+        <v>6565</v>
       </c>
       <c r="AA11" s="2">
         <f>SUM(E12:T12)</f>
@@ -13465,10 +13465,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -13517,18 +13517,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="110"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="108"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="109"/>
-      <c r="Z12" s="107"/>
+      <c r="Z12" s="116"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13577,24 +13577,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="110"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="108"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="108">
+      <c r="Y13" s="107">
         <v>43.5</v>
       </c>
-      <c r="Z13" s="107"/>
+      <c r="Z13" s="116"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>43.5</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -13643,12 +13643,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
+      <c r="U14" s="115"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="109"/>
       <c r="X14" s="49"/>
       <c r="Y14" s="109"/>
-      <c r="Z14" s="107"/>
+      <c r="Z14" s="116"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>19.5</v>
@@ -13733,10 +13733,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="117"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="170">
         <f>Мельницький!C36</f>
         <v>44562</v>
@@ -13751,11 +13751,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -13771,14 +13774,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -13812,11 +13812,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -13930,141 +13930,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
-      <c r="V6" s="123"/>
-      <c r="W6" s="123"/>
+      <c r="A6" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
     </row>
     <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="133" t="s">
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="133" t="s">
+      <c r="U8" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="133" t="s">
+      <c r="V8" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="133" t="s">
+      <c r="W8" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="133" t="s">
+      <c r="X8" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="119" t="s">
+      <c r="Y8" s="117" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="119"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="117"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111">
+      <c r="A10" s="110">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="112" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -14115,29 +14115,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="107">
+      <c r="T10" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="116">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -14186,17 +14186,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
       <c r="X11" s="109"/>
-      <c r="Y11" s="107"/>
+      <c r="Y11" s="116"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -14245,19 +14245,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="107"/>
+      <c r="T12" s="114"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="116"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -14306,12 +14306,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
       <c r="V13" s="109"/>
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
-      <c r="Y13" s="107"/>
+      <c r="Y13" s="116"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="68"/>
@@ -14326,10 +14326,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44562</v>
@@ -14396,16 +14396,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -14420,6 +14410,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
